--- a/lib/jobs/run_nbutane_rcm_ar_sens.xlsx
+++ b/lib/jobs/run_nbutane_rcm_ar_sens.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mulvihcr/PycharmProjects/pythonProject/mechsimulator/lib/jobs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clayton_mulvihill/PycharmProjects/pythonProject/mechsimulator/lib/jobs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5174C88-5430-C14D-92A8-62F0130F5CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66287AA-3AEB-3B4A-B62E-61819F03A607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48340" yWindow="14140" windowWidth="17160" windowHeight="11060" xr2:uid="{2D11CBDF-B31A-2D4F-AB7A-36B1E578E200}"/>
+    <workbookView xWindow="48340" yWindow="14140" windowWidth="17160" windowHeight="11060" activeTab="1" xr2:uid="{2D11CBDF-B31A-2D4F-AB7A-36B1E578E200}"/>
   </bookViews>
   <sheets>
     <sheet name="exp" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -66,9 +65,6 @@
     <t>n-butane_merge.csv</t>
   </si>
   <si>
-    <t>combined.yaml</t>
-  </si>
-  <si>
     <t>Combined</t>
   </si>
   <si>
@@ -76,6 +72,9 @@
   </si>
   <si>
     <t>sens</t>
+  </si>
+  <si>
+    <t>combined.cti</t>
   </si>
 </sst>
 </file>
@@ -436,7 +435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A24876-3116-4142-A121-59896857063A}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -458,10 +457,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -479,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9CDB3B5-E45D-0549-9652-D63ECDC22DD1}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -502,13 +501,13 @@
     </row>
     <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
